--- a/inst/extdata/Bruttoinlandsprodukt_je_Einwohner.xlsx
+++ b/inst/extdata/Bruttoinlandsprodukt_je_Einwohner.xlsx
@@ -1,30 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ca4a2da9ffa953f7/Dokumente/Arbeit/GBR/Projects/leafdown/inst/extdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3829BDD1-7880-4174-9709-F822BB765C12}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{3829BDD1-7880-4174-9709-F822BB765C12}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{781F7D94-46E2-47F2-BD9F-CF645336B9C3}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Daten" sheetId="1" r:id="rId1"/>
     <sheet name="Tabelle1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -112,7 +104,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -132,10 +124,9 @@
       <name val="Calibri"/>
     </font>
     <font>
-      <b/>
       <u/>
       <sz val="11"/>
-      <color indexed="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
     </font>
   </fonts>
@@ -177,8 +168,9 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFill="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyProtection="1"/>
@@ -186,12 +178,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFill="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Link" xfId="1" builtinId="8"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -571,11 +564,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AD28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3:H3"/>
+      <selection activeCell="A8" sqref="A8:H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -586,110 +579,110 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
     </row>
     <row r="2" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
       <c r="F3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
     </row>
     <row r="8" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
     </row>
     <row r="9" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
     </row>
     <row r="11" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
@@ -2362,8 +2355,8 @@
     <mergeCell ref="A5:H5"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1" display="http://www.deutschlandinzahlen.de/"/>
-    <hyperlink ref="F3" r:id="rId2" display="http://www.deutschlandinzahlen.de/"/>
+    <hyperlink ref="A1" r:id="rId1" display="http://www.deutschlandinzahlen.de/" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="F3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
@@ -2372,7 +2365,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
